--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_117.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_117.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="160">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -44,12 +47,21 @@
     <t/>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+  </si>
+  <si>
     <t>Constatazione di avvenuto parto</t>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+  </si>
+  <si>
     <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+  </si>
+  <si>
     <t>Procura</t>
   </si>
   <si>
@@ -104,6 +116,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -447,6 +462,9 @@
   </si>
   <si>
     <t>195,196</t>
+  </si>
+  <si>
+    <t>{evento.ausilioInterprete,=,false}</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -532,7 +550,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G126"/>
+  <dimension ref="A1:H126"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -544,6 +562,7 @@
     <col min="4" max="4" width="31.90234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="41.19140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -565,305 +584,353 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -885,2185 +952,2515 @@
       <c r="F17" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G17" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="E20" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>144</v>
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>144</v>
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>144</v>
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>144</v>
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>144</v>
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>144</v>
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>144</v>
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>144</v>
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>144</v>
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_117.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_117.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_117.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_117.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="161">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,76 +32,79 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Attestazione di nascita</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+  </si>
+  <si>
+    <t>Constatazione di avvenuto parto</t>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+  </si>
+  <si>
+    <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+  </si>
+  <si>
+    <t>Procura</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Atto di pre-riconoscimento</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>41-bis</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Attestazione di nascita</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
-  </si>
-  <si>
-    <t>Constatazione di avvenuto parto</t>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
-  </si>
-  <si>
-    <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
-  </si>
-  <si>
-    <t>Procura</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>Atto di pre-riconoscimento</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>41-bis</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -953,2514 +956,2514 @@
         <v>5</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_117.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_117.xlsx
@@ -47,19 +47,19 @@
     <t/>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,1</t>
   </si>
   <si>
     <t>Constatazione di avvenuto parto</t>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,2</t>
   </si>
   <si>
     <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,3</t>
   </si>
   <si>
     <t>Procura</t>
@@ -467,7 +467,7 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>{evento.ausilioInterprete,=,false}</t>
+    <t>evento.ausilioInterprete,=,false</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -565,7 +565,7 @@
     <col min="4" max="4" width="31.90234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="41.19140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="39.80859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_117.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_117.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="163">
   <si>
     <t>Sezione</t>
   </si>
@@ -224,6 +224,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalita</t>
   </si>
   <si>
@@ -440,22 +446,22 @@
     <t>Data atto</t>
   </si>
   <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
     <t>Tipo registro</t>
   </si>
   <si>
     <t>tipologia</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
   </si>
   <si>
     <t>Interprete</t>
@@ -553,7 +559,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H126"/>
+  <dimension ref="A1:H129"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1358,7 +1364,7 @@
         <v>70</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>50</v>
@@ -1450,7 +1456,7 @@
         <v>78</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>50</v>
@@ -1565,7 +1571,7 @@
         <v>88</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>50</v>
@@ -1637,10 +1643,10 @@
         <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1654,13 +1660,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>98</v>
@@ -1674,22 +1680,22 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F49" s="2" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>35</v>
@@ -1697,22 +1703,22 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>35</v>
@@ -1720,19 +1726,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1743,19 +1749,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1766,19 +1772,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1789,19 +1795,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1812,19 +1818,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1835,22 +1841,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>35</v>
@@ -1858,22 +1864,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>35</v>
@@ -1881,22 +1887,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>35</v>
@@ -1904,22 +1910,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>35</v>
@@ -1927,22 +1933,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>35</v>
@@ -1950,19 +1956,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1973,19 +1979,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1996,19 +2002,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2019,22 +2025,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>35</v>
@@ -2042,19 +2048,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2065,19 +2071,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>21</v>
@@ -2088,22 +2094,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>35</v>
@@ -2111,22 +2117,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>35</v>
@@ -2134,22 +2140,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>35</v>
@@ -2157,19 +2163,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2180,19 +2186,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="E71" s="2" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2203,19 +2209,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="E72" s="2" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2226,10 +2232,10 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
@@ -2238,7 +2244,7 @@
         <v>105</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2249,19 +2255,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>108</v>
+        <v>53</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2272,19 +2278,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2295,19 +2301,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2318,10 +2324,10 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>17</v>
@@ -2330,7 +2336,7 @@
         <v>105</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2341,10 +2347,10 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>17</v>
@@ -2353,7 +2359,7 @@
         <v>105</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2364,19 +2370,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>59</v>
+        <v>112</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2387,7 +2393,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>113</v>
@@ -2396,10 +2402,10 @@
         <v>17</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2410,19 +2416,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2433,19 +2439,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2456,19 +2462,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2479,19 +2485,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2502,10 +2508,10 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
@@ -2514,7 +2520,7 @@
         <v>105</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2525,10 +2531,10 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
@@ -2537,7 +2543,7 @@
         <v>105</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2548,19 +2554,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2571,19 +2577,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2594,19 +2600,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2617,19 +2623,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2640,19 +2646,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2663,19 +2669,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2686,19 +2692,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2709,19 +2715,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2732,19 +2738,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>34</v>
+        <v>137</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2755,19 +2761,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2778,19 +2784,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2801,19 +2807,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2824,22 +2830,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>145</v>
+        <v>37</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>35</v>
@@ -2847,19 +2853,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>22</v>
@@ -2870,599 +2876,668 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>51</v>
+        <v>147</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>150</v>
+        <v>22</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>151</v>
+        <v>35</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="C102" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E102" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>151</v>
+        <v>35</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>155</v>
+        <v>92</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>95</v>
+        <v>151</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>156</v>
+        <v>93</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>35</v>
+        <v>153</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>157</v>
+        <v>94</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>33</v>
+        <v>151</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>158</v>
+        <v>95</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>35</v>
+        <v>153</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E126" s="2" t="s">
+      <c r="C128" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F126" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G126" s="2" t="s">
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
         <v>35</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_117.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_117.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="164">
   <si>
     <t>Sezione</t>
   </si>
@@ -473,7 +473,10 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -571,7 +574,7 @@
     <col min="4" max="4" width="31.90234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="39.80859375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3431,7 +3434,7 @@
         <v>150</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>94</v>
+        <v>154</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>17</v>
@@ -3451,10 +3454,10 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>17</v>
@@ -3463,7 +3466,7 @@
         <v>97</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3474,10 +3477,10 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
@@ -3486,7 +3489,7 @@
         <v>97</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>25</v>
@@ -3497,10 +3500,10 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>17</v>
@@ -3509,7 +3512,7 @@
         <v>33</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3520,10 +3523,10 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>17</v>
@@ -3532,7 +3535,7 @@
         <v>107</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_117.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_117.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="163">
   <si>
     <t>Sezione</t>
   </si>
@@ -474,9 +474,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -3434,7 +3431,7 @@
         <v>150</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>154</v>
+        <v>94</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>17</v>
@@ -3454,10 +3451,10 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>17</v>
@@ -3466,7 +3463,7 @@
         <v>97</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3477,10 +3474,10 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
@@ -3489,7 +3486,7 @@
         <v>97</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>25</v>
@@ -3500,10 +3497,10 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>17</v>
@@ -3512,7 +3509,7 @@
         <v>33</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3523,10 +3520,10 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>17</v>
@@ -3535,7 +3532,7 @@
         <v>107</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_117.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_117.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="164">
   <si>
     <t>Sezione</t>
   </si>
@@ -474,6 +474,9 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -3431,7 +3434,7 @@
         <v>150</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>94</v>
+        <v>154</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>17</v>
@@ -3451,10 +3454,10 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>17</v>
@@ -3463,7 +3466,7 @@
         <v>97</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3474,10 +3477,10 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
@@ -3486,7 +3489,7 @@
         <v>97</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>25</v>
@@ -3497,10 +3500,10 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>17</v>
@@ -3509,7 +3512,7 @@
         <v>33</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3520,10 +3523,10 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>17</v>
@@ -3532,7 +3535,7 @@
         <v>107</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_117.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_117.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="174">
   <si>
     <t>Sezione</t>
   </si>
@@ -324,6 +324,36 @@
   </si>
   <si>
     <t>11,30,43</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Trasmissione residenza estera</t>
+  </si>
+  <si>
+    <t>flagTrasmissioneResidenzaEstera</t>
   </si>
   <si>
     <t>Soggetto</t>
@@ -562,7 +592,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H129"/>
+  <dimension ref="A1:H138"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -572,7 +602,7 @@
     <col min="2" max="2" width="49.48828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="31.90234375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
@@ -2235,19 +2265,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2258,22 +2288,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>35</v>
@@ -2281,19 +2311,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2304,22 +2334,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>35</v>
@@ -2327,22 +2357,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>35</v>
@@ -2350,19 +2380,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2373,19 +2403,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2396,19 +2426,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2419,19 +2449,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2442,19 +2472,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E82" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2465,19 +2495,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2488,19 +2518,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2511,19 +2541,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2534,19 +2564,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2557,19 +2587,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>118</v>
+        <v>61</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2580,19 +2610,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2603,19 +2633,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2626,19 +2656,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>124</v>
+        <v>66</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2649,19 +2679,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>127</v>
+        <v>68</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>129</v>
+        <v>69</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2672,19 +2702,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2695,19 +2725,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2718,19 +2748,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2741,19 +2771,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2764,19 +2794,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2787,19 +2817,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2810,19 +2840,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2833,19 +2863,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>37</v>
+        <v>136</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2856,22 +2886,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>35</v>
@@ -2879,22 +2909,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>35</v>
@@ -2902,19 +2932,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2925,622 +2955,829 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>49</v>
+        <v>144</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>51</v>
+        <v>145</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>153</v>
+        <v>35</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>52</v>
+        <v>146</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>53</v>
+        <v>147</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>153</v>
+        <v>35</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>54</v>
+        <v>148</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>55</v>
+        <v>149</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>153</v>
+        <v>35</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="C106" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>153</v>
+        <v>35</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>58</v>
+        <v>151</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>59</v>
+        <v>152</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>153</v>
+        <v>35</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>60</v>
+        <v>153</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>153</v>
+        <v>35</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>62</v>
+        <v>154</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>153</v>
+        <v>35</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>64</v>
+        <v>156</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>65</v>
+        <v>157</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>153</v>
+        <v>35</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>66</v>
+        <v>158</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>67</v>
+        <v>159</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>153</v>
+        <v>35</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>154</v>
+        <v>76</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>97</v>
+        <v>161</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>157</v>
+        <v>79</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>35</v>
+        <v>163</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>97</v>
+        <v>161</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>159</v>
+        <v>81</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>35</v>
+        <v>163</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>160</v>
+        <v>82</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>33</v>
+        <v>161</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>161</v>
+        <v>83</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>35</v>
+        <v>163</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F130" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E129" s="2" t="s">
+      <c r="G130" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G129" s="2" t="s">
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
         <v>35</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_117.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_117.xlsx
@@ -2708,7 +2708,7 @@
         <v>127</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>117</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_117.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_117.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="176">
   <si>
     <t>Sezione</t>
   </si>
@@ -176,6 +176,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -230,13 +236,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -592,7 +598,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H138"/>
+  <dimension ref="A1:H142"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1213,7 +1219,7 @@
         <v>54</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>50</v>
@@ -1305,7 +1311,7 @@
         <v>62</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>50</v>
@@ -1420,7 +1426,7 @@
         <v>72</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>50</v>
@@ -1443,7 +1449,7 @@
         <v>74</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>50</v>
@@ -1512,7 +1518,7 @@
         <v>80</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>50</v>
@@ -1627,7 +1633,7 @@
         <v>90</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>50</v>
@@ -1699,10 +1705,10 @@
         <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1716,13 +1722,13 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>100</v>
@@ -1736,22 +1742,22 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F50" s="2" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>35</v>
@@ -1759,22 +1765,22 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>35</v>
@@ -1782,19 +1788,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1805,19 +1811,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1828,19 +1834,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1851,19 +1857,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1874,19 +1880,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1897,22 +1903,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>35</v>
@@ -1920,19 +1926,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1943,19 +1949,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>21</v>
@@ -1966,22 +1972,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>35</v>
@@ -1989,22 +1995,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>35</v>
@@ -2012,22 +2018,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>35</v>
@@ -2035,19 +2041,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2058,19 +2064,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2081,19 +2087,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2104,22 +2110,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>35</v>
@@ -2127,19 +2133,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2150,19 +2156,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>21</v>
@@ -2173,22 +2179,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>35</v>
@@ -2196,22 +2202,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>35</v>
@@ -2219,22 +2225,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>35</v>
@@ -2242,19 +2248,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2265,19 +2271,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="E73" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2288,22 +2294,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>35</v>
@@ -2311,19 +2317,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2334,19 +2340,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>21</v>
@@ -2357,22 +2363,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>35</v>
@@ -2380,22 +2386,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>35</v>
@@ -2403,22 +2409,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="C79" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E79" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>35</v>
@@ -2426,10 +2432,10 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>116</v>
+        <v>49</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
@@ -2438,7 +2444,7 @@
         <v>117</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2449,19 +2455,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>119</v>
+        <v>52</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>117</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2472,19 +2478,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2495,19 +2501,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2518,19 +2524,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>121</v>
+        <v>54</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>117</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>122</v>
+        <v>55</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2541,10 +2547,10 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>123</v>
+        <v>56</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>17</v>
@@ -2553,7 +2559,7 @@
         <v>117</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>124</v>
+        <v>57</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2564,7 +2570,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>58</v>
@@ -2573,7 +2579,7 @@
         <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>59</v>
@@ -2587,19 +2593,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>61</v>
+        <v>124</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2610,19 +2616,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2633,19 +2639,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2656,19 +2662,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2679,19 +2685,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2702,19 +2708,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>117</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2725,19 +2731,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2748,19 +2754,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2771,19 +2777,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2794,19 +2800,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2817,10 +2823,10 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
@@ -2829,7 +2835,7 @@
         <v>117</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2840,10 +2846,10 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
@@ -2852,7 +2858,7 @@
         <v>117</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2863,19 +2869,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2886,19 +2892,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2909,19 +2915,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="C101" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2932,19 +2938,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2955,19 +2961,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2978,19 +2984,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3001,19 +3007,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3024,19 +3030,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>34</v>
+        <v>147</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3047,19 +3053,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3070,19 +3076,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>37</v>
+        <v>151</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3093,22 +3099,22 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>155</v>
+        <v>34</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>35</v>
@@ -3116,22 +3122,22 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>35</v>
@@ -3139,19 +3145,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>159</v>
+        <v>37</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3162,622 +3168,714 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>49</v>
+        <v>156</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>162</v>
+        <v>22</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>163</v>
+        <v>35</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>52</v>
+        <v>158</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>53</v>
+        <v>159</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>163</v>
+        <v>35</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="C114" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E114" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>163</v>
+        <v>35</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F134" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G134" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G135" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G135" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G136" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G137" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B138" s="2" t="s">
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E138" s="2" t="s">
+      <c r="C141" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E141" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="F138" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G138" s="2" t="s">
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
         <v>35</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_117.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_117.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="178">
   <si>
     <t>Sezione</t>
   </si>
@@ -246,6 +246,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -598,7 +604,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H142"/>
+  <dimension ref="A1:H145"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1495,7 +1501,7 @@
         <v>78</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>50</v>
@@ -1518,7 +1524,7 @@
         <v>80</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>50</v>
@@ -1656,7 +1662,7 @@
         <v>92</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>50</v>
@@ -1728,10 +1734,10 @@
         <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1745,13 +1751,13 @@
         <v>47</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>102</v>
@@ -1765,22 +1771,22 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F51" s="2" t="s">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>35</v>
@@ -1788,22 +1794,22 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>35</v>
@@ -1811,19 +1817,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1834,19 +1840,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1857,19 +1863,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1880,19 +1886,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1903,19 +1909,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1926,19 +1932,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1949,22 +1955,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>35</v>
@@ -1972,22 +1978,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>35</v>
@@ -1995,22 +2001,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>35</v>
@@ -2018,19 +2024,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>21</v>
@@ -2041,22 +2047,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>35</v>
@@ -2064,19 +2070,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2087,19 +2093,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2110,22 +2116,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>35</v>
@@ -2133,19 +2139,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2156,19 +2162,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>21</v>
@@ -2179,19 +2185,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2202,19 +2208,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>21</v>
@@ -2225,22 +2231,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>35</v>
@@ -2248,22 +2254,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>35</v>
@@ -2271,22 +2277,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>35</v>
@@ -2294,19 +2300,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2317,19 +2323,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="E75" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2340,22 +2346,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>35</v>
@@ -2363,19 +2369,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2386,19 +2392,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>21</v>
@@ -2409,22 +2415,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>35</v>
@@ -2432,22 +2438,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>35</v>
@@ -2455,22 +2461,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="C81" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E81" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>35</v>
@@ -2478,10 +2484,10 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>118</v>
+        <v>49</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
@@ -2490,7 +2496,7 @@
         <v>119</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2501,19 +2507,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>119</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>122</v>
+        <v>53</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2524,19 +2530,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2547,19 +2553,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>57</v>
+        <v>124</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2570,19 +2576,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2593,10 +2599,10 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>123</v>
+        <v>56</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>17</v>
@@ -2605,7 +2611,7 @@
         <v>119</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>124</v>
+        <v>57</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2616,10 +2622,10 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>125</v>
+        <v>58</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>17</v>
@@ -2628,7 +2634,7 @@
         <v>119</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>126</v>
+        <v>59</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2639,19 +2645,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2662,7 +2668,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>127</v>
@@ -2671,10 +2677,10 @@
         <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>63</v>
+        <v>128</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2685,19 +2691,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2708,19 +2714,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2731,19 +2737,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2754,19 +2760,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2777,19 +2783,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>129</v>
+        <v>68</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>119</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2800,19 +2806,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2823,19 +2829,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2846,19 +2852,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2869,19 +2875,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2892,10 +2898,10 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
@@ -2904,7 +2910,7 @@
         <v>119</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2915,10 +2921,10 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
@@ -2927,7 +2933,7 @@
         <v>119</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2938,19 +2944,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2961,19 +2967,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2984,19 +2990,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D104" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3007,19 +3013,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3030,19 +3036,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3053,19 +3059,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3076,19 +3082,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3099,19 +3105,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>34</v>
+        <v>151</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3122,19 +3128,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3145,19 +3151,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3168,22 +3174,22 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="F112" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>35</v>
@@ -3191,22 +3197,22 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>159</v>
+        <v>37</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>35</v>
@@ -3214,22 +3220,22 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>35</v>
@@ -3237,645 +3243,714 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>49</v>
+        <v>160</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>51</v>
+        <v>161</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>164</v>
+        <v>22</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>165</v>
+        <v>35</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="C116" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E116" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>165</v>
+        <v>35</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B138" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F138" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G138" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G139" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G140" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G141" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B142" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B144" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C142" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E142" s="2" t="s">
+      <c r="C144" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E144" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="F142" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G142" s="2" t="s">
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
         <v>35</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_117.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_117.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="180">
   <si>
     <t>Sezione</t>
   </si>
@@ -246,6 +246,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -604,7 +610,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H145"/>
+  <dimension ref="A1:H148"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1685,7 +1691,7 @@
         <v>94</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>50</v>
@@ -1757,10 +1763,10 @@
         <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1774,13 +1780,13 @@
         <v>47</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>104</v>
@@ -1794,22 +1800,22 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F52" s="2" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>35</v>
@@ -1817,22 +1823,22 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>35</v>
@@ -1840,19 +1846,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1863,19 +1869,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1886,19 +1892,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1909,19 +1915,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1932,19 +1938,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1955,19 +1961,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1978,22 +1984,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>35</v>
@@ -2001,22 +2007,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>35</v>
@@ -2024,22 +2030,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>35</v>
@@ -2047,19 +2053,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>21</v>
@@ -2070,22 +2076,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>35</v>
@@ -2093,19 +2099,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2116,22 +2122,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>35</v>
@@ -2139,22 +2145,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>35</v>
@@ -2162,19 +2168,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>21</v>
@@ -2185,19 +2191,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2208,19 +2214,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>21</v>
@@ -2231,19 +2237,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2254,19 +2260,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>21</v>
@@ -2277,22 +2283,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>35</v>
@@ -2300,22 +2306,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>35</v>
@@ -2323,22 +2329,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>35</v>
@@ -2346,19 +2352,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2369,19 +2375,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="E77" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2392,22 +2398,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>35</v>
@@ -2415,19 +2421,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2438,19 +2444,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>21</v>
@@ -2461,22 +2467,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>35</v>
@@ -2484,22 +2490,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>49</v>
+        <v>116</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>35</v>
@@ -2507,22 +2513,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="C83" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E83" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>35</v>
@@ -2530,10 +2536,10 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
@@ -2542,7 +2548,7 @@
         <v>121</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2553,19 +2559,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2576,19 +2582,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>54</v>
+        <v>122</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2599,19 +2605,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2622,19 +2628,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2645,10 +2651,10 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>125</v>
+        <v>56</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>17</v>
@@ -2657,7 +2663,7 @@
         <v>121</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>126</v>
+        <v>57</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2668,10 +2674,10 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>127</v>
+        <v>58</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>17</v>
@@ -2680,7 +2686,7 @@
         <v>121</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>128</v>
+        <v>59</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2691,19 +2697,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>60</v>
+        <v>127</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2714,7 +2720,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>129</v>
@@ -2723,10 +2729,10 @@
         <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2737,19 +2743,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2760,19 +2766,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2783,19 +2789,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2806,19 +2812,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2829,19 +2835,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>132</v>
+        <v>69</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2852,19 +2858,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2875,19 +2881,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2898,19 +2904,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2921,19 +2927,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2944,10 +2950,10 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
@@ -2956,7 +2962,7 @@
         <v>121</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2967,10 +2973,10 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
@@ -2979,7 +2985,7 @@
         <v>121</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2990,19 +2996,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3013,19 +3019,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3036,19 +3042,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D106" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3059,19 +3065,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3082,19 +3088,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3105,19 +3111,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3128,19 +3134,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3151,19 +3157,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>34</v>
+        <v>153</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3174,19 +3180,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3197,19 +3203,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3220,22 +3226,22 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="F114" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>35</v>
@@ -3243,22 +3249,22 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>161</v>
+        <v>37</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>35</v>
@@ -3266,22 +3272,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>35</v>
@@ -3289,668 +3295,737 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>49</v>
+        <v>162</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>51</v>
+        <v>163</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>166</v>
+        <v>22</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>167</v>
+        <v>35</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="C118" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E118" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>167</v>
+        <v>35</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B141" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F141" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C141" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G141" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G142" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G143" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G144" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B145" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B147" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C145" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E145" s="2" t="s">
+      <c r="C147" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E147" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="F145" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G145" s="2" t="s">
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
         <v>35</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_117.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_117.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="184">
   <si>
     <t>Sezione</t>
   </si>
@@ -372,6 +372,18 @@
   </si>
   <si>
     <t>flagTrasmissioneResidenzaEstera</t>
+  </si>
+  <si>
+    <t>Padre</t>
+  </si>
+  <si>
+    <t>evento.padre</t>
+  </si>
+  <si>
+    <t>11,43</t>
+  </si>
+  <si>
+    <t>opzionale</t>
   </si>
   <si>
     <t>Soggetto</t>
@@ -610,7 +622,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H148"/>
+  <dimension ref="A1:H179"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2551,10 +2563,10 @@
         <v>51</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>122</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
     </row>
     <row r="85">
@@ -2577,7 +2589,7 @@
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
     </row>
     <row r="86">
@@ -2585,22 +2597,22 @@
         <v>120</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="87">
@@ -2608,22 +2620,22 @@
         <v>120</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>125</v>
+        <v>56</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="88">
@@ -2631,22 +2643,22 @@
         <v>120</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
     </row>
     <row r="89">
@@ -2654,7 +2666,7 @@
         <v>120</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>17</v>
@@ -2663,13 +2675,13 @@
         <v>121</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
     </row>
     <row r="90">
@@ -2677,7 +2689,7 @@
         <v>120</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>17</v>
@@ -2686,13 +2698,13 @@
         <v>121</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
     </row>
     <row r="91">
@@ -2700,22 +2712,22 @@
         <v>120</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>127</v>
+        <v>64</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="92">
@@ -2723,22 +2735,22 @@
         <v>120</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>129</v>
+        <v>66</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="93">
@@ -2746,22 +2758,22 @@
         <v>120</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
     </row>
     <row r="94">
@@ -2769,22 +2781,22 @@
         <v>120</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
     </row>
     <row r="95">
@@ -2792,7 +2804,7 @@
         <v>120</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
@@ -2801,13 +2813,13 @@
         <v>121</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
     </row>
     <row r="96">
@@ -2815,22 +2827,22 @@
         <v>120</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
     </row>
     <row r="97">
@@ -2838,22 +2850,22 @@
         <v>120</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
     </row>
     <row r="98">
@@ -2861,7 +2873,7 @@
         <v>120</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
@@ -2870,13 +2882,13 @@
         <v>121</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
     </row>
     <row r="99">
@@ -2884,22 +2896,22 @@
         <v>120</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="100">
@@ -2907,7 +2919,7 @@
         <v>120</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
@@ -2916,13 +2928,13 @@
         <v>121</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
     </row>
     <row r="101">
@@ -2930,7 +2942,7 @@
         <v>120</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
@@ -2939,13 +2951,13 @@
         <v>121</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
     </row>
     <row r="102">
@@ -2953,7 +2965,7 @@
         <v>120</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
@@ -2962,13 +2974,13 @@
         <v>121</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
     </row>
     <row r="103">
@@ -2976,7 +2988,7 @@
         <v>120</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
@@ -2985,13 +2997,13 @@
         <v>121</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
     </row>
     <row r="104">
@@ -2999,22 +3011,22 @@
         <v>120</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="105">
@@ -3022,246 +3034,246 @@
         <v>120</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G105" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>143</v>
+        <v>96</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>145</v>
+        <v>97</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>146</v>
+        <v>98</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>147</v>
+        <v>99</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>34</v>
+        <v>117</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>159</v>
+        <v>49</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3272,22 +3284,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>160</v>
+        <v>52</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>35</v>
@@ -3295,22 +3307,22 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>162</v>
+        <v>126</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>35</v>
@@ -3318,19 +3330,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3341,122 +3353,122 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>56</v>
+        <v>131</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>57</v>
+        <v>132</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>58</v>
+        <v>133</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>60</v>
@@ -3465,7 +3477,7 @@
         <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>61</v>
@@ -3474,21 +3486,21 @@
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>63</v>
@@ -3497,12 +3509,12 @@
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>64</v>
@@ -3511,7 +3523,7 @@
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>65</v>
@@ -3520,35 +3532,35 @@
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>66</v>
+        <v>136</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>68</v>
@@ -3557,7 +3569,7 @@
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>69</v>
@@ -3566,12 +3578,12 @@
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>70</v>
@@ -3580,378 +3592,378 @@
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>85</v>
+        <v>142</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>86</v>
+        <v>144</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>87</v>
+        <v>146</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>88</v>
+        <v>147</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>91</v>
+        <v>151</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>92</v>
+        <v>152</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>93</v>
+        <v>153</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>94</v>
+        <v>154</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>96</v>
+        <v>156</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>97</v>
+        <v>157</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>98</v>
+        <v>158</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>99</v>
+        <v>159</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>103</v>
+        <v>148</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3962,22 +3974,22 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>103</v>
+        <v>148</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>175</v>
+        <v>37</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>35</v>
@@ -3985,22 +3997,22 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>33</v>
+        <v>148</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>35</v>
@@ -4008,24 +4020,737 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="E150" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E148" s="2" t="s">
+      <c r="C177" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E177" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="F148" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G148" s="2" t="s">
+      <c r="F177" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
         <v>35</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_117.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_117.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="186">
   <si>
     <t>Sezione</t>
   </si>
@@ -516,6 +516,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -622,7 +628,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H179"/>
+  <dimension ref="A1:H180"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1496,7 +1502,7 @@
         <v>76</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>50</v>
@@ -4049,7 +4055,7 @@
         <v>168</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>148</v>
@@ -4058,7 +4064,7 @@
         <v>169</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G149" s="2" t="s">
         <v>35</v>
@@ -4066,605 +4072,605 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B150" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B150" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D150" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E150" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E150" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F150" s="2" t="s">
-        <v>172</v>
+        <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>173</v>
+        <v>35</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>172</v>
+        <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>172</v>
+        <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>172</v>
+        <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>172</v>
+        <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>172</v>
+        <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>172</v>
+        <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>174</v>
+        <v>98</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>176</v>
@@ -4673,27 +4679,27 @@
         <v>17</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>103</v>
+        <v>173</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>177</v>
+        <v>101</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>35</v>
+        <v>175</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>178</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>103</v>
@@ -4702,7 +4708,7 @@
         <v>179</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
         <v>35</v>
@@ -4710,22 +4716,22 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>180</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>181</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G178" s="2" t="s">
         <v>35</v>
@@ -4733,7 +4739,7 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>182</v>
@@ -4742,7 +4748,7 @@
         <v>17</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>127</v>
+        <v>33</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>183</v>
@@ -4751,6 +4757,29 @@
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="2" t="s">
         <v>35</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_117.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_117.xlsx
@@ -4377,7 +4377,7 @@
         <v>74</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>173</v>
@@ -4400,7 +4400,7 @@
         <v>76</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>173</v>
@@ -4409,7 +4409,7 @@
         <v>77</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="G164" s="2" t="s">
         <v>175</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_117.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_117.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="190">
   <si>
     <t>Sezione</t>
   </si>
@@ -186,6 +186,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -628,7 +640,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H180"/>
+  <dimension ref="A1:H188"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1295,7 +1307,7 @@
         <v>58</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>50</v>
@@ -1318,7 +1330,7 @@
         <v>60</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>50</v>
@@ -1364,7 +1376,7 @@
         <v>64</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>50</v>
@@ -1387,7 +1399,7 @@
         <v>66</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>50</v>
@@ -1732,7 +1744,7 @@
         <v>96</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>50</v>
@@ -1755,7 +1767,7 @@
         <v>98</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>50</v>
@@ -1804,10 +1816,10 @@
         <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1821,16 +1833,16 @@
         <v>47</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1841,22 +1853,22 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="2" t="s">
+      <c r="E53" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F53" s="2" t="s">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>35</v>
@@ -1864,19 +1876,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="E54" s="2" t="s">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1887,22 +1899,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>35</v>
@@ -1910,19 +1922,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1933,19 +1945,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1956,19 +1968,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1979,19 +1991,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -2002,22 +2014,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>35</v>
@@ -2025,22 +2037,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>35</v>
@@ -2048,19 +2060,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2071,22 +2083,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>35</v>
@@ -2094,22 +2106,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>35</v>
@@ -2117,22 +2129,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>35</v>
@@ -2140,19 +2152,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2163,19 +2175,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>21</v>
@@ -2186,19 +2198,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>21</v>
@@ -2209,19 +2221,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2232,22 +2244,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>35</v>
@@ -2255,22 +2267,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>35</v>
@@ -2278,19 +2290,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>21</v>
@@ -2301,19 +2313,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2324,19 +2336,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>21</v>
@@ -2347,22 +2359,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>35</v>
@@ -2370,22 +2382,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>35</v>
@@ -2393,19 +2405,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2416,22 +2428,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>35</v>
@@ -2439,22 +2451,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>35</v>
@@ -2462,22 +2474,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="E80" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>35</v>
@@ -2485,19 +2497,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2508,22 +2520,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>35</v>
@@ -2531,22 +2543,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>35</v>
@@ -2554,715 +2566,715 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>49</v>
+        <v>116</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>122</v>
+        <v>21</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>123</v>
+        <v>35</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>52</v>
+        <v>118</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>123</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E86" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>123</v>
+        <v>35</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>57</v>
+        <v>123</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>123</v>
+        <v>35</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="115">
@@ -3270,22 +3282,22 @@
         <v>124</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>125</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
     </row>
     <row r="116">
@@ -3293,22 +3305,22 @@
         <v>124</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>125</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
     </row>
     <row r="117">
@@ -3316,22 +3328,22 @@
         <v>124</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G117" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="118">
@@ -3339,22 +3351,22 @@
         <v>124</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="119">
@@ -3362,7 +3374,7 @@
         <v>124</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
@@ -3371,13 +3383,13 @@
         <v>125</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
     </row>
     <row r="120">
@@ -3385,39 +3397,39 @@
         <v>124</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>125</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>57</v>
+        <v>123</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3428,19 +3440,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>132</v>
+        <v>53</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3451,19 +3463,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3474,19 +3486,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3497,19 +3509,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>135</v>
+        <v>54</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3520,19 +3532,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3543,19 +3555,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>136</v>
+        <v>62</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3566,19 +3578,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>68</v>
+        <v>135</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>69</v>
+        <v>136</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3589,19 +3601,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>70</v>
+        <v>137</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3612,19 +3624,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>137</v>
+        <v>64</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>138</v>
+        <v>65</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3635,19 +3647,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3658,19 +3670,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3681,19 +3693,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3704,19 +3716,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3727,19 +3739,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>139</v>
+        <v>74</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3750,16 +3762,16 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>142</v>
@@ -3773,19 +3785,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3796,19 +3808,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3819,19 +3831,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3842,19 +3854,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3865,19 +3877,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="C141" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3888,19 +3900,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3911,19 +3923,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3934,19 +3946,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>34</v>
+        <v>153</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3957,19 +3969,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3980,19 +3992,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>37</v>
+        <v>157</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -4003,22 +4015,22 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>35</v>
@@ -4026,22 +4038,22 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>35</v>
@@ -4049,22 +4061,22 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
         <v>35</v>
@@ -4072,19 +4084,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>171</v>
+        <v>34</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4095,691 +4107,875 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>49</v>
+        <v>165</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>51</v>
+        <v>166</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>174</v>
+        <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>175</v>
+        <v>35</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>52</v>
+        <v>167</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>175</v>
+        <v>35</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>54</v>
+        <v>168</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>55</v>
+        <v>169</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>175</v>
+        <v>35</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>56</v>
+        <v>170</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>57</v>
+        <v>171</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>175</v>
+        <v>35</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B155" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B155" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="C155" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E155" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E155" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F155" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>175</v>
+        <v>35</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>60</v>
+        <v>174</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>61</v>
+        <v>175</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>175</v>
+        <v>35</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>10</v>
+        <v>178</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>174</v>
+        <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>174</v>
+        <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>174</v>
+        <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>174</v>
+        <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>174</v>
+        <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>10</v>
+        <v>178</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>174</v>
+        <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>10</v>
+        <v>178</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>10</v>
+        <v>178</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>176</v>
+        <v>88</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>10</v>
+        <v>178</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B177" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="E177" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="F177" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G177" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D178" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B178" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="E178" s="2" t="s">
-        <v>181</v>
+        <v>93</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>25</v>
+        <v>178</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>35</v>
+        <v>179</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D179" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B179" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="E179" s="2" t="s">
-        <v>183</v>
+        <v>95</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>35</v>
+        <v>179</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D180" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B180" s="2" t="s">
+      <c r="E180" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B186" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C180" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E180" s="2" t="s">
+      <c r="C186" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E186" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="F180" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G180" s="2" t="s">
+      <c r="F186" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G188" s="2" t="s">
         <v>35</v>
       </c>
     </row>
